--- a/data/trans_orig/P1420-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104F2973-CEB4-45E8-833E-4866279238F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0ABC3B-4023-4D55-BE84-E0F0E11D4700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E1BFD1C-7175-47FE-9685-59760DF6D8C5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3FF2EAC-D456-4D07-8717-04F393045960}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="174">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,427 +94,421 @@
     <t>1,17%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>99,09%</t>
+    <t>99,03%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>99,11%</t>
   </si>
   <si>
     <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
@@ -977,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4470FA3E-A27E-4DAD-8077-56EC8B6CC04C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BC6086-905C-44B4-97B1-37F16FBF6BCB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1436,7 +1430,7 @@
         <v>3458</v>
       </c>
       <c r="N10" s="7">
-        <v>3684968</v>
+        <v>3684967</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -1487,7 +1481,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1564,13 +1558,13 @@
         <v>3044</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1579,13 +1573,13 @@
         <v>5000</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1594,13 +1588,13 @@
         <v>8044</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,13 +1609,13 @@
         <v>478137</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>407</v>
@@ -1630,13 +1624,13 @@
         <v>453631</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
@@ -1645,13 +1639,13 @@
         <v>931768</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1764,13 @@
         <v>27007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -1785,13 +1779,13 @@
         <v>55781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -1800,13 +1794,13 @@
         <v>82788</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,13 +1815,13 @@
         <v>3392775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>3239</v>
@@ -1836,28 +1830,28 @@
         <v>3495239</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="M18" s="7">
         <v>6415</v>
       </c>
       <c r="N18" s="7">
-        <v>6888013</v>
+        <v>6888014</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,7 +1893,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1913,7 +1907,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6246D0AC-6CA8-4009-B33F-A9848A4D244A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAFD59D-F2F3-4E80-8342-C0D87382A964}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2062,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2077,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2107,13 +2101,13 @@
         <v>10522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2122,13 +2116,13 @@
         <v>18626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -2137,13 +2131,13 @@
         <v>29148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2152,13 @@
         <v>743825</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H6" s="7">
         <v>876</v>
@@ -2173,13 +2167,13 @@
         <v>976034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M6" s="7">
         <v>1627</v>
@@ -2188,10 +2182,10 @@
         <v>1719859</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>109</v>
@@ -2298,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2307,13 @@
         <v>14938</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -2328,13 +2322,13 @@
         <v>23392</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -2343,13 +2337,13 @@
         <v>38330</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2358,13 @@
         <v>2061447</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>1887</v>
@@ -2379,13 +2373,13 @@
         <v>1964908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>3825</v>
@@ -2394,13 +2388,13 @@
         <v>4026355</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2489,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2504,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2513,13 @@
         <v>8073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2534,13 +2528,13 @@
         <v>3932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2549,13 +2543,13 @@
         <v>12005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2564,13 @@
         <v>538813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -2585,13 +2579,13 @@
         <v>545208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>1019</v>
@@ -2600,13 +2594,13 @@
         <v>1084021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2719,13 @@
         <v>33533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -2740,13 +2734,13 @@
         <v>45950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -2755,13 +2749,13 @@
         <v>79483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2770,13 @@
         <v>3344085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H18" s="7">
         <v>3286</v>
@@ -2791,13 +2785,13 @@
         <v>3486150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M18" s="7">
         <v>6471</v>
@@ -2806,13 +2800,13 @@
         <v>6830235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,7 +2862,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18A612B-9C4A-4EA7-96C2-3E26916BFE0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F24B387-80ED-4FAF-88E7-83522242ECC0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2904,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3011,10 +3005,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3026,10 +3020,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3041,10 +3035,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3068,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3083,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3119,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3134,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3217,10 +3211,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3229,13 +3223,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3247,10 +3241,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3289,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3304,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3355,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3376,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3423,10 +3417,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3438,10 +3432,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3453,10 +3447,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3480,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3495,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3510,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3546,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3561,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3620,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3644,10 +3638,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3656,13 +3650,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3701,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3716,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3767,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,7 +3773,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3809,7 +3803,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3823,7 +3817,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1420-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0ABC3B-4023-4D55-BE84-E0F0E11D4700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5C8DB6-841F-4B97-949B-9C2DC9EA4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3FF2EAC-D456-4D07-8717-04F393045960}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9D95096-1A0C-4CD9-94E4-C0704F2B030D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="188">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,319 +94,355 @@
     <t>1,17%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -421,34 +457,34 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -457,10 +493,10 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -469,28 +505,31 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -499,16 +538,19 @@
     <t>98,7%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>99,11%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
@@ -971,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BC6086-905C-44B4-97B1-37F16FBF6BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CA2424-AB9C-4FD7-9051-035E7ED06384}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1385,10 +1427,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,13 +1445,13 @@
         <v>1951402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1614</v>
@@ -1418,28 +1460,28 @@
         <v>1733565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>3458</v>
       </c>
       <c r="N10" s="7">
-        <v>3684967</v>
+        <v>3684968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,7 +1523,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1495,7 +1537,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1513,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1528,7 +1570,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1543,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1600,13 @@
         <v>3044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1573,13 +1615,13 @@
         <v>5000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1588,13 +1630,13 @@
         <v>8044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1651,13 @@
         <v>478137</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>407</v>
@@ -1624,13 +1666,13 @@
         <v>453631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
@@ -1639,13 +1681,13 @@
         <v>931768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1806,13 @@
         <v>27007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -1779,13 +1821,13 @@
         <v>55781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -1794,13 +1836,13 @@
         <v>82788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1857,13 @@
         <v>3392775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>3239</v>
@@ -1830,28 +1872,28 @@
         <v>3495239</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>6415</v>
       </c>
       <c r="N18" s="7">
-        <v>6888014</v>
+        <v>6888013</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,7 +1935,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1907,7 +1949,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAFD59D-F2F3-4E80-8342-C0D87382A964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8BEDAC-BA84-41CA-97CA-05EFBA765667}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1943,7 +1985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2056,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2071,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2101,13 +2143,13 @@
         <v>10522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2116,13 +2158,13 @@
         <v>18626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -2131,13 +2173,13 @@
         <v>29148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2194,13 @@
         <v>743825</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>876</v>
@@ -2167,13 +2209,13 @@
         <v>976034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>1627</v>
@@ -2182,13 +2224,13 @@
         <v>1719859</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2349,13 @@
         <v>14938</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -2322,13 +2364,13 @@
         <v>23392</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -2337,13 +2379,13 @@
         <v>38330</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2400,13 @@
         <v>2061447</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>1887</v>
@@ -2373,13 +2415,13 @@
         <v>1964908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>3825</v>
@@ -2388,13 +2430,13 @@
         <v>4026355</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2492,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2468,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2483,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2498,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2555,13 @@
         <v>8073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2528,13 +2570,13 @@
         <v>3932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2543,13 +2585,13 @@
         <v>12005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2606,13 @@
         <v>538813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -2579,13 +2621,13 @@
         <v>545208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>1019</v>
@@ -2594,13 +2636,13 @@
         <v>1084021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2761,13 @@
         <v>33533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -2734,13 +2776,13 @@
         <v>45950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -2749,13 +2791,13 @@
         <v>79483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2812,13 @@
         <v>3344085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>3286</v>
@@ -2785,13 +2827,13 @@
         <v>3486150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
         <v>6471</v>
@@ -2800,13 +2842,13 @@
         <v>6830235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2904,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F24B387-80ED-4FAF-88E7-83522242ECC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A069AFC-E630-4895-8D3D-F77EAC4CA520}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2898,7 +2940,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3005,10 +3047,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3020,10 +3062,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3035,10 +3077,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3062,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3077,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3113,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3128,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3211,10 +3253,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3226,10 +3268,10 @@
         <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3241,10 +3283,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3283,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3298,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3349,7 +3391,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,7 +3447,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3417,10 +3459,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3432,10 +3474,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3447,10 +3489,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3474,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3489,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3504,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3540,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3555,7 +3597,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,10 +3665,10 @@
         <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3638,10 +3680,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3653,10 +3695,10 @@
         <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3695,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3710,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3761,7 +3803,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3859,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1420-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74B2255-A8B6-4583-AA20-A587553C52C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{366EAFB6-2614-4D2E-BD86-460A57188FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6450993-5A73-488C-8EE4-5579DC038A8C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{12E8575F-78C2-4961-A965-4D6C719D4D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -871,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF8331C-A4B1-4EF5-95B5-23A5ED710E7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD53F2D-C5A9-4B78-B889-F36FBC4EE517}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1058,7 +1058,7 @@
         <v>1218</v>
       </c>
       <c r="I5" s="7">
-        <v>1308042</v>
+        <v>1308043</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1109,7 +1109,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1228,7 @@
         <v>3458</v>
       </c>
       <c r="N8" s="7">
-        <v>3684968</v>
+        <v>3684967</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1279,7 +1279,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1383,7 @@
         <v>842</v>
       </c>
       <c r="N11" s="7">
-        <v>931768</v>
+        <v>931769</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1434,7 +1434,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1622,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D18080-896C-49A6-91B6-6B97D3E3F7EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF0994F-7453-49CA-9DC6-DFA352AE4922}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2134,7 +2134,7 @@
         <v>1019</v>
       </c>
       <c r="N11" s="7">
-        <v>1084021</v>
+        <v>1084022</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>124</v>
@@ -2185,7 +2185,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
